--- a/水産マッチング_URL IDセキュリティ対応_スケジュール_0506.xlsx
+++ b/水産マッチング_URL IDセキュリティ対応_スケジュール_0506.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.40\プロジェクト\テクバン\JS21-0017_水産マッチングサイト URL IDセキュリティ対応\23_スケジュール\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\103381\tesst135\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70379DFD-90BF-4174-BE3D-A417FB8037C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B6E2BC-23DB-4F66-9B18-EA13A44FD5DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8925" yWindow="240" windowWidth="18600" windowHeight="8565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="URL IDセキュリティ対応" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>現地調査</t>
     <rPh sb="0" eb="2">
@@ -309,6 +309,10 @@
     <rPh sb="10" eb="12">
       <t>シュウセイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1457,18 +1461,18 @@
       <selection activeCell="Y2" sqref="Y2"/>
       <selection pane="topRight" activeCell="Y2" sqref="Y2"/>
       <selection pane="bottomLeft" activeCell="Y2" sqref="Y2"/>
-      <selection pane="bottomRight" activeCell="AC24" sqref="AC24"/>
+      <selection pane="bottomRight" activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="2" width="2.19921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.3984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.3984375" style="2" customWidth="1"/>
-    <col min="5" max="31" width="3.8984375" style="6" customWidth="1"/>
-    <col min="32" max="32" width="3.8984375" style="37" customWidth="1"/>
-    <col min="33" max="36" width="3.8984375" style="6" customWidth="1"/>
-    <col min="37" max="16384" width="8.09765625" style="1"/>
+    <col min="1" max="2" width="2.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="2" customWidth="1"/>
+    <col min="5" max="31" width="3.875" style="6" customWidth="1"/>
+    <col min="32" max="32" width="3.875" style="37" customWidth="1"/>
+    <col min="33" max="36" width="3.875" style="6" customWidth="1"/>
+    <col min="37" max="16384" width="8.125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:37">
@@ -1777,7 +1781,7 @@
         <v>金</v>
       </c>
     </row>
-    <row r="5" spans="2:37" ht="8.4" customHeight="1" thickBot="1">
+    <row r="5" spans="2:37" ht="8.4499999999999993" customHeight="1" thickBot="1">
       <c r="B5" s="5"/>
       <c r="E5" s="41"/>
       <c r="F5" s="41"/>
@@ -1827,7 +1831,9 @@
       <c r="I6" s="24"/>
       <c r="J6" s="24"/>
       <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
+      <c r="L6" s="47" t="s">
+        <v>26</v>
+      </c>
       <c r="M6" s="47"/>
       <c r="N6" s="42"/>
       <c r="O6" s="42"/>
@@ -1853,7 +1859,7 @@
       <c r="AI6" s="42"/>
       <c r="AJ6" s="42"/>
     </row>
-    <row r="7" spans="2:37" ht="15.6" thickBot="1">
+    <row r="7" spans="2:37" ht="16.5" thickBot="1">
       <c r="C7" s="27"/>
       <c r="D7" s="28"/>
       <c r="E7" s="43"/>
@@ -1863,7 +1869,9 @@
       <c r="I7" s="29"/>
       <c r="J7" s="29"/>
       <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
+      <c r="L7" s="43" t="s">
+        <v>26</v>
+      </c>
       <c r="M7" s="43"/>
       <c r="N7" s="43"/>
       <c r="O7" s="43"/>
@@ -1929,7 +1937,7 @@
       <c r="AI8" s="42"/>
       <c r="AJ8" s="42"/>
     </row>
-    <row r="9" spans="2:37" ht="15.6" thickBot="1">
+    <row r="9" spans="2:37" ht="16.5" thickBot="1">
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="43"/>
@@ -2005,7 +2013,7 @@
       <c r="AI10" s="44"/>
       <c r="AJ10" s="44"/>
     </row>
-    <row r="11" spans="2:37" ht="15.6" thickBot="1">
+    <row r="11" spans="2:37" ht="16.5" thickBot="1">
       <c r="D11" s="19"/>
       <c r="E11" s="45"/>
       <c r="F11" s="45"/>
@@ -2080,7 +2088,7 @@
       <c r="AI12" s="42"/>
       <c r="AJ12" s="42"/>
     </row>
-    <row r="13" spans="2:37" ht="15.6" thickBot="1">
+    <row r="13" spans="2:37" ht="16.5" thickBot="1">
       <c r="D13" s="19"/>
       <c r="E13" s="45"/>
       <c r="F13" s="45"/>
@@ -2155,7 +2163,7 @@
       <c r="AI14" s="42"/>
       <c r="AJ14" s="42"/>
     </row>
-    <row r="15" spans="2:37" ht="15.6" thickBot="1">
+    <row r="15" spans="2:37" ht="16.5" thickBot="1">
       <c r="D15" s="19"/>
       <c r="E15" s="45"/>
       <c r="F15" s="45"/>
@@ -2226,7 +2234,7 @@
       <c r="AI16" s="42"/>
       <c r="AJ16" s="42"/>
     </row>
-    <row r="17" spans="3:36" ht="15.6" thickBot="1">
+    <row r="17" spans="3:36" ht="16.5" thickBot="1">
       <c r="C17" s="27"/>
       <c r="D17" s="31"/>
       <c r="E17" s="43"/>
@@ -2538,7 +2546,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2561,17 +2569,17 @@
       <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="2" width="2.19921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.3984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.3984375" style="2" customWidth="1"/>
-    <col min="5" max="31" width="3.8984375" style="6" customWidth="1"/>
-    <col min="32" max="32" width="3.8984375" style="37" customWidth="1"/>
-    <col min="33" max="48" width="3.8984375" style="6" customWidth="1"/>
-    <col min="49" max="49" width="3.8984375" style="37" customWidth="1"/>
-    <col min="50" max="65" width="3.8984375" style="6" customWidth="1"/>
-    <col min="66" max="16384" width="8.09765625" style="1"/>
+    <col min="1" max="2" width="2.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="2" customWidth="1"/>
+    <col min="5" max="31" width="3.875" style="6" customWidth="1"/>
+    <col min="32" max="32" width="3.875" style="37" customWidth="1"/>
+    <col min="33" max="48" width="3.875" style="6" customWidth="1"/>
+    <col min="49" max="49" width="3.875" style="37" customWidth="1"/>
+    <col min="50" max="65" width="3.875" style="6" customWidth="1"/>
+    <col min="66" max="16384" width="8.125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:65">
@@ -3144,7 +3152,7 @@
         <v>日</v>
       </c>
     </row>
-    <row r="5" spans="2:65" ht="8.4" customHeight="1" thickBot="1">
+    <row r="5" spans="2:65" ht="8.4499999999999993" customHeight="1" thickBot="1">
       <c r="B5" s="5"/>
       <c r="E5" s="41"/>
       <c r="F5" s="41"/>
@@ -3277,7 +3285,7 @@
       <c r="BL6" s="24"/>
       <c r="BM6" s="53"/>
     </row>
-    <row r="7" spans="2:65" ht="15.6" thickBot="1">
+    <row r="7" spans="2:65" ht="16.5" thickBot="1">
       <c r="C7" s="27"/>
       <c r="D7" s="28"/>
       <c r="E7" s="43"/>
@@ -3411,7 +3419,7 @@
       <c r="BL8" s="24"/>
       <c r="BM8" s="53"/>
     </row>
-    <row r="9" spans="2:65" ht="15.6" thickBot="1">
+    <row r="9" spans="2:65" ht="16.5" thickBot="1">
       <c r="C9" s="27"/>
       <c r="D9" s="28"/>
       <c r="E9" s="58"/>
@@ -3677,7 +3685,7 @@
       <c r="BL12" s="10"/>
       <c r="BM12" s="57"/>
     </row>
-    <row r="13" spans="2:65" ht="15.6" thickBot="1">
+    <row r="13" spans="2:65" ht="16.5" thickBot="1">
       <c r="C13" s="27"/>
       <c r="D13" s="31"/>
       <c r="E13" s="43"/>
@@ -3945,7 +3953,7 @@
       <c r="BL16" s="10"/>
       <c r="BM16" s="57"/>
     </row>
-    <row r="17" spans="3:65" ht="15.6" thickBot="1">
+    <row r="17" spans="3:65" ht="16.5" thickBot="1">
       <c r="D17" s="19"/>
       <c r="E17" s="45"/>
       <c r="F17" s="45"/>
@@ -4212,7 +4220,7 @@
       <c r="BL20" s="10"/>
       <c r="BM20" s="57"/>
     </row>
-    <row r="21" spans="3:65" ht="15.6" thickBot="1">
+    <row r="21" spans="3:65" ht="16.5" thickBot="1">
       <c r="C21" s="1" t="s">
         <v>12</v>
       </c>
@@ -4482,7 +4490,7 @@
       <c r="BL24" s="10"/>
       <c r="BM24" s="57"/>
     </row>
-    <row r="25" spans="3:65" ht="15.6" thickBot="1">
+    <row r="25" spans="3:65" ht="16.5" thickBot="1">
       <c r="D25" s="19"/>
       <c r="E25" s="45"/>
       <c r="F25" s="45"/>
@@ -4749,7 +4757,7 @@
       <c r="BL28" s="10"/>
       <c r="BM28" s="57"/>
     </row>
-    <row r="29" spans="3:65" ht="15.6" thickBot="1">
+    <row r="29" spans="3:65" ht="16.5" thickBot="1">
       <c r="D29" s="19"/>
       <c r="E29" s="45"/>
       <c r="F29" s="45"/>
@@ -4882,7 +4890,7 @@
       <c r="BL30" s="24"/>
       <c r="BM30" s="53"/>
     </row>
-    <row r="31" spans="3:65" ht="15.6" thickBot="1">
+    <row r="31" spans="3:65" ht="16.5" thickBot="1">
       <c r="C31" s="27"/>
       <c r="D31" s="31"/>
       <c r="E31" s="43"/>
